--- a/sample3.xlsx
+++ b/sample3.xlsx
@@ -426,7 +426,7 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>MIG Welding Equipment：471</t>
+          <t>MIG Welding Equipment：843</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Welding Wire：579</t>
+          <t>Welding Wire：443</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Welding Wire：575</t>
+          <t>Welding Wire：440</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Welding Wire：488</t>
+          <t>Welding Wire：545</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>MIG Welding Equipment：385</t>
+          <t>MIG Welding Equipment：434</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>MIG Welding Equipment：471</t>
+          <t>MIG Welding Equipment：843</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>MIG Welding Equipment：385</t>
+          <t>MIG Welding Equipment：434</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Plasma Cutting Equipment：1608</t>
+          <t>Plasma Cutting Equipment：1681</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>MIG Welding Equipment：385</t>
+          <t>MIG Welding Equipment：434</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>MIG Welding Equipment：387</t>
+          <t>MIG Welding Equipment：259</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Welding Systems：410</t>
+          <t>Welding Systems：602</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Plasma Cutting Equipment：696</t>
+          <t>Plasma Cutting Equipment：568</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Welding Systems：636</t>
+          <t>Welding Systems：823</t>
         </is>
       </c>
     </row>
